--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H2">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N2">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O2">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P2">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q2">
-        <v>88.83136503595026</v>
+        <v>103.8926461660895</v>
       </c>
       <c r="R2">
-        <v>355.325460143801</v>
+        <v>415.570584664358</v>
       </c>
       <c r="S2">
-        <v>0.0002669070536238332</v>
+        <v>0.0005781330594635643</v>
       </c>
       <c r="T2">
-        <v>0.0001273378471318377</v>
+        <v>0.0002792066073857555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H3">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I3">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J3">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P3">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q3">
-        <v>499.9553468210456</v>
+        <v>435.7567802403064</v>
       </c>
       <c r="R3">
-        <v>2999.732080926274</v>
+        <v>2614.540681441838</v>
       </c>
       <c r="S3">
-        <v>0.001502190228749528</v>
+        <v>0.002424862681229393</v>
       </c>
       <c r="T3">
-        <v>0.001075012820648628</v>
+        <v>0.001756613823201683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H4">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I4">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J4">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N4">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O4">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P4">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q4">
-        <v>351.896080339969</v>
+        <v>618.0802480963295</v>
       </c>
       <c r="R4">
-        <v>2111.376482039814</v>
+        <v>3708.481488577977</v>
       </c>
       <c r="S4">
-        <v>0.001057324132611333</v>
+        <v>0.003439440980785827</v>
       </c>
       <c r="T4">
-        <v>0.0007566531697417223</v>
+        <v>0.00249159245911261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H5">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I5">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J5">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N5">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O5">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P5">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q5">
-        <v>224.311820750137</v>
+        <v>269.7440497933005</v>
       </c>
       <c r="R5">
-        <v>897.2472830005481</v>
+        <v>1078.976199173202</v>
       </c>
       <c r="S5">
-        <v>0.0006739782411897732</v>
+        <v>0.001501049001387301</v>
       </c>
       <c r="T5">
-        <v>0.000321546160289054</v>
+        <v>0.0007249244656342604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H6">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I6">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J6">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N6">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O6">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P6">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q6">
-        <v>66.97214713849949</v>
+        <v>74.46454709816383</v>
       </c>
       <c r="R6">
-        <v>401.832882830997</v>
+        <v>446.787282588983</v>
       </c>
       <c r="S6">
-        <v>0.0002012277809798886</v>
+        <v>0.0004143740488292786</v>
       </c>
       <c r="T6">
-        <v>0.0001440046941352615</v>
+        <v>0.0003001799597907627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H7">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I7">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J7">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N7">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O7">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P7">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q7">
-        <v>370.3257855168356</v>
+        <v>165.3179324331965</v>
       </c>
       <c r="R7">
-        <v>2221.954713101014</v>
+        <v>991.9075945991791</v>
       </c>
       <c r="S7">
-        <v>0.00111269892400312</v>
+        <v>0.0009199473262910361</v>
       </c>
       <c r="T7">
-        <v>0.0007962810474549646</v>
+        <v>0.0006664262692025778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J8">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N8">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O8">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P8">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q8">
-        <v>12.56619285096117</v>
+        <v>16.86200666684633</v>
       </c>
       <c r="R8">
-        <v>75.39715710576701</v>
+        <v>101.172040001078</v>
       </c>
       <c r="S8">
-        <v>3.775699616640527E-05</v>
+        <v>9.383227651564799E-05</v>
       </c>
       <c r="T8">
-        <v>2.702004990530033E-05</v>
+        <v>6.797377652177133E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J9">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P9">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q9">
-        <v>70.72429093575087</v>
+        <v>70.72429093575089</v>
       </c>
       <c r="R9">
         <v>636.518618421758</v>
       </c>
       <c r="S9">
-        <v>0.0002125016553067325</v>
+        <v>0.0003935605859120251</v>
       </c>
       <c r="T9">
-        <v>0.0002281089300393955</v>
+        <v>0.000427653473430863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J10">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N10">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O10">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P10">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q10">
-        <v>49.77964716921533</v>
+        <v>100.3157937414063</v>
       </c>
       <c r="R10">
-        <v>448.016824522938</v>
+        <v>902.8421436726569</v>
       </c>
       <c r="S10">
-        <v>0.0001495703567201985</v>
+        <v>0.0005582288919229099</v>
       </c>
       <c r="T10">
-        <v>0.0001605556153800664</v>
+        <v>0.0006065864650726451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J11">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N11">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O11">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P11">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q11">
-        <v>31.73142275991933</v>
+        <v>43.780056951147</v>
       </c>
       <c r="R11">
-        <v>190.388536559516</v>
+        <v>262.680341706882</v>
       </c>
       <c r="S11">
-        <v>9.534178105576502E-05</v>
+        <v>0.0002436235787872067</v>
       </c>
       <c r="T11">
-        <v>6.822946589377095E-05</v>
+        <v>0.0001764852704725127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J12">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N12">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O12">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P12">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q12">
-        <v>9.473961322610998</v>
+        <v>12.08576098452255</v>
       </c>
       <c r="R12">
-        <v>85.26565190349899</v>
+        <v>108.771848860703</v>
       </c>
       <c r="S12">
-        <v>2.846592644096933E-05</v>
+        <v>6.725382625019722E-05</v>
       </c>
       <c r="T12">
-        <v>3.055661855272112E-05</v>
+        <v>7.307980887049953E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J13">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N13">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O13">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P13">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q13">
-        <v>52.38673566037087</v>
+        <v>26.83146672750433</v>
       </c>
       <c r="R13">
-        <v>471.480620943338</v>
+        <v>241.483200547539</v>
       </c>
       <c r="S13">
-        <v>0.0001574037420051068</v>
+        <v>0.0001493094893768339</v>
       </c>
       <c r="T13">
-        <v>0.000168964326989148</v>
+        <v>0.0001622436901302535</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H14">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I14">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J14">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N14">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O14">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P14">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q14">
-        <v>7501.04455079948</v>
+        <v>3352.599289643448</v>
       </c>
       <c r="R14">
-        <v>45006.26730479688</v>
+        <v>20115.59573786068</v>
       </c>
       <c r="S14">
-        <v>0.02253800444634338</v>
+        <v>0.01865626255566086</v>
       </c>
       <c r="T14">
-        <v>0.0161288785321308</v>
+        <v>0.01351492971055115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H15">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I15">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J15">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P15">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q15">
-        <v>42216.92786548263</v>
+        <v>14061.80250289755</v>
       </c>
       <c r="R15">
-        <v>379952.3507893437</v>
+        <v>126556.222526078</v>
       </c>
       <c r="S15">
-        <v>0.1268470413019735</v>
+        <v>0.0782499358960987</v>
       </c>
       <c r="T15">
-        <v>0.1361633763666003</v>
+        <v>0.08502847612181712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H16">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I16">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J16">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N16">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O16">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P16">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q16">
-        <v>29714.59658211458</v>
+        <v>19945.3520261452</v>
       </c>
       <c r="R16">
-        <v>267431.3692390313</v>
+        <v>179508.1682353068</v>
       </c>
       <c r="S16">
-        <v>0.08928192671747551</v>
+        <v>0.1109902174454082</v>
       </c>
       <c r="T16">
-        <v>0.09583927591520183</v>
+        <v>0.120604942940058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H17">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I17">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J17">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N17">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O17">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P17">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q17">
-        <v>18941.20348186458</v>
+        <v>8704.597900767911</v>
       </c>
       <c r="R17">
-        <v>113647.2208911875</v>
+        <v>52227.58740460746</v>
       </c>
       <c r="S17">
-        <v>0.05691166415587531</v>
+        <v>0.04843861429543268</v>
       </c>
       <c r="T17">
-        <v>0.04072771040652009</v>
+        <v>0.03508979708696435</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H18">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I18">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J18">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N18">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O18">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P18">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q18">
-        <v>5655.221656734374</v>
+        <v>2402.959178706632</v>
       </c>
       <c r="R18">
-        <v>50896.99491060938</v>
+        <v>21626.63260835968</v>
       </c>
       <c r="S18">
-        <v>0.01699195491792566</v>
+        <v>0.01337178513607985</v>
       </c>
       <c r="T18">
-        <v>0.01823993629607677</v>
+        <v>0.01453013986693785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H19">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I19">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J19">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N19">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O19">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P19">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q19">
-        <v>31270.82663142013</v>
+        <v>5334.783579915816</v>
       </c>
       <c r="R19">
-        <v>281437.4396827812</v>
+        <v>48013.05221924234</v>
       </c>
       <c r="S19">
-        <v>0.09395785145479005</v>
+        <v>0.02968655498197718</v>
       </c>
       <c r="T19">
-        <v>0.1008586259397179</v>
+        <v>0.03225820574186447</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H20">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I20">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J20">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N20">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O20">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P20">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q20">
-        <v>105.1136327943135</v>
+        <v>78.36023917482251</v>
       </c>
       <c r="R20">
-        <v>420.4545311772541</v>
+        <v>313.44095669929</v>
       </c>
       <c r="S20">
-        <v>0.0003158295497707774</v>
+        <v>0.0004360524684491435</v>
       </c>
       <c r="T20">
-        <v>0.0001506781270198594</v>
+        <v>0.0002105894626936526</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H21">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I21">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J21">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N21">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O21">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P21">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q21">
-        <v>591.594227084466</v>
+        <v>328.6662413727818</v>
       </c>
       <c r="R21">
-        <v>3549.565362506796</v>
+        <v>1971.99744823669</v>
       </c>
       <c r="S21">
-        <v>0.001777532879609369</v>
+        <v>0.001828934257420586</v>
       </c>
       <c r="T21">
-        <v>0.001272056360195617</v>
+        <v>0.001324912632447817</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H22">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I22">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J22">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N22">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O22">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P22">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q22">
-        <v>416.396566186326</v>
+        <v>466.1823320260225</v>
       </c>
       <c r="R22">
-        <v>2498.379397117956</v>
+        <v>2797.093992156135</v>
       </c>
       <c r="S22">
-        <v>0.001251125439476197</v>
+        <v>0.002594172232856585</v>
       </c>
       <c r="T22">
-        <v>0.0008953432540938321</v>
+        <v>0.001879264685492005</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H23">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I23">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J23">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N23">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O23">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P23">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q23">
-        <v>265.426860751398</v>
+        <v>203.4524005096275</v>
       </c>
       <c r="R23">
-        <v>1061.707443005592</v>
+        <v>813.8096020385101</v>
       </c>
       <c r="S23">
-        <v>0.0007975144964518808</v>
+        <v>0.001132154806932132</v>
       </c>
       <c r="T23">
-        <v>0.0003804836839484184</v>
+        <v>0.0005467687714871414</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H24">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I24">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J24">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N24">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O24">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P24">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q24">
-        <v>79.24774857297299</v>
+        <v>56.16431899644417</v>
       </c>
       <c r="R24">
-        <v>475.486491437838</v>
+        <v>336.9859139786651</v>
       </c>
       <c r="S24">
-        <v>0.0002381116519978543</v>
+        <v>0.0003125384786348832</v>
       </c>
       <c r="T24">
-        <v>0.0001703999092422524</v>
+        <v>0.0002264084544260111</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H25">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I25">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J25">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N25">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O25">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P25">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q25">
-        <v>438.2043281371259</v>
+        <v>124.6897947391075</v>
       </c>
       <c r="R25">
-        <v>2629.225968822756</v>
+        <v>748.138768434645</v>
       </c>
       <c r="S25">
-        <v>0.001316650105072209</v>
+        <v>0.0006938632826924118</v>
       </c>
       <c r="T25">
-        <v>0.0009422346891706424</v>
+        <v>0.0005026469511962787</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H26">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I26">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J26">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N26">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O26">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P26">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q26">
-        <v>88.41373211384933</v>
+        <v>1016.830005735784</v>
       </c>
       <c r="R26">
-        <v>530.482392683096</v>
+        <v>6100.980034414702</v>
       </c>
       <c r="S26">
-        <v>0.000265652213369052</v>
+        <v>0.005658370095132493</v>
       </c>
       <c r="T26">
-        <v>0.0001901087690093295</v>
+        <v>0.004099024329436029</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H27">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I27">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J27">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N27">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O27">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P27">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q27">
-        <v>497.6048503232337</v>
+        <v>4264.88866827787</v>
       </c>
       <c r="R27">
-        <v>4478.443652909104</v>
+        <v>38383.99801450083</v>
       </c>
       <c r="S27">
-        <v>0.001495127812287389</v>
+        <v>0.02373289376151982</v>
       </c>
       <c r="T27">
-        <v>0.001604938112320734</v>
+        <v>0.02578879800211594</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H28">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I28">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J28">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N28">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O28">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P28">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q28">
-        <v>350.2416715818827</v>
+        <v>6049.345795006824</v>
       </c>
       <c r="R28">
-        <v>3152.175044236944</v>
+        <v>54444.11215506142</v>
       </c>
       <c r="S28">
-        <v>0.001052353215335306</v>
+        <v>0.03366289069805085</v>
       </c>
       <c r="T28">
-        <v>0.001129643746196497</v>
+        <v>0.03657899862961118</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H29">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I29">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J29">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N29">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O29">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P29">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q29">
-        <v>223.2572382710347</v>
+        <v>2640.069858842824</v>
       </c>
       <c r="R29">
-        <v>1339.543429626208</v>
+        <v>15840.41915305694</v>
       </c>
       <c r="S29">
-        <v>0.0006708095912181488</v>
+        <v>0.0146912387066384</v>
       </c>
       <c r="T29">
-        <v>0.0004800516585531691</v>
+        <v>0.01064259563718994</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H30">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I30">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J30">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N30">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O30">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P30">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q30">
-        <v>66.65728342456799</v>
+        <v>728.8079440376475</v>
       </c>
       <c r="R30">
-        <v>599.915550821112</v>
+        <v>6559.271496338828</v>
       </c>
       <c r="S30">
-        <v>0.0002002817261022617</v>
+        <v>0.004055609150374717</v>
       </c>
       <c r="T30">
-        <v>0.0002149915029211669</v>
+        <v>0.004406933524647813</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H31">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I31">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J31">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N31">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O31">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P31">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q31">
-        <v>368.5847311057937</v>
+        <v>1618.018602736706</v>
       </c>
       <c r="R31">
-        <v>3317.262579952144</v>
+        <v>14562.16742463035</v>
       </c>
       <c r="S31">
-        <v>0.00110746766697063</v>
+        <v>0.009003813836579871</v>
       </c>
       <c r="T31">
-        <v>0.001188806102245418</v>
+        <v>0.009783785265018826</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H32">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I32">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J32">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N32">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O32">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P32">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q32">
-        <v>10655.49359144642</v>
+        <v>6629.430190484884</v>
       </c>
       <c r="R32">
-        <v>63932.96154867851</v>
+        <v>39776.5811429093</v>
       </c>
       <c r="S32">
-        <v>0.03201601594492684</v>
+        <v>0.03689089555383887</v>
       </c>
       <c r="T32">
-        <v>0.02291163059657072</v>
+        <v>0.02672442344129279</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H33">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I33">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J33">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N33">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O33">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P33">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q33">
-        <v>59970.60826325324</v>
+        <v>27805.80975880931</v>
       </c>
       <c r="R33">
-        <v>539735.4743692791</v>
+        <v>250252.2878292838</v>
       </c>
       <c r="S33">
-        <v>0.1801906156580632</v>
+        <v>0.1547314315300334</v>
       </c>
       <c r="T33">
-        <v>0.1934247922990108</v>
+        <v>0.168135317690426</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H34">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I34">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J34">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N34">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O34">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P34">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q34">
-        <v>42210.6136430547</v>
+        <v>39439.94120932904</v>
       </c>
       <c r="R34">
-        <v>379895.5227874923</v>
+        <v>354959.4708839614</v>
       </c>
       <c r="S34">
-        <v>0.1268280692811846</v>
+        <v>0.2194720677338461</v>
       </c>
       <c r="T34">
-        <v>0.1361430109376506</v>
+        <v>0.2384842269454634</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H35">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I35">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J35">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N35">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O35">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P35">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q35">
-        <v>26906.63559567572</v>
+        <v>17212.47281106454</v>
       </c>
       <c r="R35">
-        <v>161439.8135740543</v>
+        <v>103274.8368663872</v>
       </c>
       <c r="S35">
-        <v>0.08084499013232049</v>
+        <v>0.0957825210389356</v>
       </c>
       <c r="T35">
-        <v>0.05785512328209095</v>
+        <v>0.06938656847685784</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H36">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I36">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J36">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N36">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O36">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P36">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q36">
-        <v>8033.438238294366</v>
+        <v>4751.611734522173</v>
       </c>
       <c r="R36">
-        <v>72300.9441446493</v>
+        <v>42764.50561069955</v>
       </c>
       <c r="S36">
-        <v>0.02413766049620459</v>
+        <v>0.02644136934456981</v>
       </c>
       <c r="T36">
-        <v>0.02591046126909379</v>
+        <v>0.028731900112074</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H37">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I37">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J37">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N37">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O37">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P37">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q37">
-        <v>44421.29232985496</v>
+        <v>10549.00161604407</v>
       </c>
       <c r="R37">
-        <v>399791.6309686946</v>
+        <v>94941.01454439665</v>
       </c>
       <c r="S37">
-        <v>0.1334703823264032</v>
+        <v>0.05870219696608579</v>
       </c>
       <c r="T37">
-        <v>0.1432731714982565</v>
+        <v>0.06378737945110426</v>
       </c>
     </row>
   </sheetData>
